--- a/Code/Results/Cases/Case_2_243/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_243/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.12459406060947</v>
+        <v>13.21398521684939</v>
       </c>
       <c r="C2">
-        <v>11.22548285527817</v>
+        <v>12.31560227565291</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.828648460735637</v>
+        <v>13.36223393530197</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>18.73106568670284</v>
+        <v>24.27843624243556</v>
       </c>
       <c r="H2">
-        <v>7.797235617695381</v>
+        <v>13.18575121505748</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.140503076856702</v>
+        <v>9.814528489030314</v>
       </c>
       <c r="M2">
-        <v>11.03959012947833</v>
+        <v>13.83754049242213</v>
       </c>
       <c r="N2">
-        <v>12.26403938473406</v>
+        <v>17.57552532045061</v>
       </c>
       <c r="O2">
-        <v>12.37600300808077</v>
+        <v>19.46715587116932</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.92383029509638</v>
+        <v>12.76271241188098</v>
       </c>
       <c r="C3">
-        <v>10.98542238072892</v>
+        <v>12.24719418083618</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.937462852579104</v>
+        <v>13.41174372781251</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>18.29643446616772</v>
+        <v>24.3244957366343</v>
       </c>
       <c r="H3">
-        <v>7.847069567841015</v>
+        <v>13.23195892781406</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.054447842408437</v>
+        <v>9.820490745795702</v>
       </c>
       <c r="M3">
-        <v>10.53444832556263</v>
+        <v>13.74776926705693</v>
       </c>
       <c r="N3">
-        <v>12.35516518464876</v>
+        <v>17.61480324029826</v>
       </c>
       <c r="O3">
-        <v>12.35133949492561</v>
+        <v>19.53824825278387</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.14200015625721</v>
+        <v>12.47861274572599</v>
       </c>
       <c r="C4">
-        <v>10.83580567171133</v>
+        <v>12.20523890311344</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.007767950070921</v>
+        <v>13.44394344324337</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>18.05113523598686</v>
+        <v>24.36206271122449</v>
       </c>
       <c r="H4">
-        <v>7.883235469454107</v>
+        <v>13.26257631663888</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.003622687295229</v>
+        <v>9.825457767990565</v>
       </c>
       <c r="M4">
-        <v>10.2145499654933</v>
+        <v>13.6941395386984</v>
       </c>
       <c r="N4">
-        <v>12.41480744512684</v>
+        <v>17.6407056856032</v>
       </c>
       <c r="O4">
-        <v>12.34889336267005</v>
+        <v>19.58653506266554</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.81214526796441</v>
+        <v>12.3612485512356</v>
       </c>
       <c r="C5">
-        <v>10.77434021310724</v>
+        <v>12.18816241285769</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.037285574600805</v>
+        <v>13.45751866368636</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>17.95661264737983</v>
+        <v>24.37969638943608</v>
       </c>
       <c r="H5">
-        <v>7.899321583030111</v>
+        <v>13.27561767765303</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.983431486103187</v>
+        <v>9.82781096485796</v>
       </c>
       <c r="M5">
-        <v>10.08191054056828</v>
+        <v>13.67267685792054</v>
       </c>
       <c r="N5">
-        <v>12.44002482489037</v>
+        <v>17.65171089283085</v>
       </c>
       <c r="O5">
-        <v>12.35097009658004</v>
+        <v>19.60737515503186</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.75669209281658</v>
+        <v>12.34166957351984</v>
       </c>
       <c r="C6">
-        <v>10.76410587862833</v>
+        <v>12.18532837167309</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.042239074436889</v>
+        <v>13.45980023788753</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>17.94124560781802</v>
+        <v>24.38276453313254</v>
       </c>
       <c r="H6">
-        <v>7.902072616787495</v>
+        <v>13.27781727698055</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.980110581418903</v>
+        <v>9.828221605492161</v>
       </c>
       <c r="M6">
-        <v>10.05975375189156</v>
+        <v>13.66913715406968</v>
       </c>
       <c r="N6">
-        <v>12.44426684708001</v>
+        <v>17.65356548471367</v>
       </c>
       <c r="O6">
-        <v>12.3514970062169</v>
+        <v>19.61090578215668</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.13759724314504</v>
+        <v>12.47703613392674</v>
       </c>
       <c r="C7">
-        <v>10.83497864841669</v>
+        <v>12.20500850870697</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.008162534800563</v>
+        <v>13.44412468579953</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>18.04983845072301</v>
+        <v>24.36229112670279</v>
       </c>
       <c r="H7">
-        <v>7.883447020730074</v>
+        <v>13.26274991146565</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.003348256350156</v>
+        <v>9.825488170726777</v>
       </c>
       <c r="M7">
-        <v>10.21277012416294</v>
+        <v>13.6938484765852</v>
       </c>
       <c r="N7">
-        <v>12.41514385960399</v>
+        <v>17.64085228367224</v>
       </c>
       <c r="O7">
-        <v>12.34890908610616</v>
+        <v>19.58681141508862</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.7197883561235</v>
+        <v>13.05994153752638</v>
       </c>
       <c r="C8">
-        <v>11.14320701721231</v>
+        <v>12.2920105115075</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.865436118756914</v>
+        <v>13.37893171336416</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>18.57674722149202</v>
+        <v>24.29238446508953</v>
       </c>
       <c r="H8">
-        <v>7.813231101657819</v>
+        <v>13.20121744874455</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.110422273648173</v>
+        <v>9.816313586184357</v>
       </c>
       <c r="M8">
-        <v>10.86753339480292</v>
+        <v>13.80628854702068</v>
       </c>
       <c r="N8">
-        <v>12.29468397174985</v>
+        <v>17.58869817737344</v>
       </c>
       <c r="O8">
-        <v>12.36479329406459</v>
+        <v>19.4907046584724</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.47123202785402</v>
+        <v>14.14053950332914</v>
       </c>
       <c r="C9">
-        <v>11.72745588553428</v>
+        <v>12.46261686365514</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.613789373090686</v>
+        <v>13.26533709516214</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>19.77909256730381</v>
+        <v>24.22936851480515</v>
       </c>
       <c r="H9">
-        <v>7.722119729153892</v>
+        <v>13.0983780670335</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.335699791023091</v>
+        <v>9.808655789723632</v>
       </c>
       <c r="M9">
-        <v>12.18532611943949</v>
+        <v>14.03782983053735</v>
       </c>
       <c r="N9">
-        <v>12.08849408199206</v>
+        <v>17.50055991728384</v>
       </c>
       <c r="O9">
-        <v>12.50176307075444</v>
+        <v>19.33914790159121</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.28192497290925</v>
+        <v>14.88833202440489</v>
       </c>
       <c r="C10">
-        <v>12.14118818883247</v>
+        <v>12.5874465870851</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.446940455644318</v>
+        <v>13.19051291665977</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>20.76136450492958</v>
+        <v>24.22865031274865</v>
       </c>
       <c r="H10">
-        <v>7.686994770701702</v>
+        <v>13.03369863172507</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.509614455992986</v>
+        <v>9.809285565251896</v>
       </c>
       <c r="M10">
-        <v>13.19809639941022</v>
+        <v>14.21360734638015</v>
       </c>
       <c r="N10">
-        <v>11.95643827228501</v>
+        <v>17.44437833119457</v>
       </c>
       <c r="O10">
-        <v>12.67338970821971</v>
+        <v>19.25046517787338</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.06063218972081</v>
+        <v>15.21710041074613</v>
       </c>
       <c r="C11">
-        <v>12.3254320586924</v>
+        <v>12.64401337596171</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.375164503961122</v>
+        <v>13.15833718982454</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>21.22853526854222</v>
+        <v>24.23827541051871</v>
       </c>
       <c r="H11">
-        <v>7.678691155169124</v>
+        <v>13.00663821267876</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.590356354992734</v>
+        <v>9.810919712082523</v>
       </c>
       <c r="M11">
-        <v>13.63514513285143</v>
+        <v>14.29456792428026</v>
       </c>
       <c r="N11">
-        <v>11.90085672362185</v>
+        <v>17.42067242497625</v>
       </c>
       <c r="O11">
-        <v>12.76812222527144</v>
+        <v>19.21507606672535</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.34910115788281</v>
+        <v>15.3398569397975</v>
       </c>
       <c r="C12">
-        <v>12.39458489520433</v>
+        <v>12.66539291744417</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.348598417447468</v>
+        <v>13.14642005910953</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>21.40825803583394</v>
+        <v>24.24335277880733</v>
       </c>
       <c r="H12">
-        <v>7.676715631044289</v>
+        <v>12.9967310986754</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.621148470287495</v>
+        <v>9.811731250167089</v>
       </c>
       <c r="M12">
-        <v>13.79726075229224</v>
+        <v>14.32534899344218</v>
       </c>
       <c r="N12">
-        <v>11.88048058564139</v>
+        <v>17.41196115280299</v>
       </c>
       <c r="O12">
-        <v>12.8064807775696</v>
+        <v>19.20238993191358</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.28725836734991</v>
+        <v>15.31349802745574</v>
       </c>
       <c r="C13">
-        <v>12.37971969774685</v>
+        <v>12.66079043004004</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.354292239294953</v>
+        <v>13.14897475659869</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>21.36942801294985</v>
+        <v>24.24219555987991</v>
       </c>
       <c r="H13">
-        <v>7.677088056874055</v>
+        <v>12.99884964236169</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.614507455859423</v>
+        <v>9.811547917448499</v>
       </c>
       <c r="M13">
-        <v>13.76249648482979</v>
+        <v>14.31871459464658</v>
       </c>
       <c r="N13">
-        <v>11.88483866327359</v>
+        <v>17.41382547593837</v>
       </c>
       <c r="O13">
-        <v>12.79810769515282</v>
+        <v>19.20509027878429</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.08449284194437</v>
+        <v>15.22723508858589</v>
       </c>
       <c r="C14">
-        <v>12.33113390623285</v>
+        <v>12.64577316179452</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.372966464841666</v>
+        <v>13.15735141057348</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>21.24326535924347</v>
+        <v>24.23866441633817</v>
       </c>
       <c r="H14">
-        <v>7.67850482329113</v>
+        <v>13.00581633078745</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.592885389419677</v>
+        <v>9.810982621785609</v>
       </c>
       <c r="M14">
-        <v>13.64855021096585</v>
+        <v>14.29709795316363</v>
       </c>
       <c r="N14">
-        <v>11.89916675744037</v>
+        <v>17.41995042286887</v>
       </c>
       <c r="O14">
-        <v>12.77122770990818</v>
+        <v>19.21401802707773</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.95946002117552</v>
+        <v>15.17416704744559</v>
       </c>
       <c r="C15">
-        <v>12.30129214175656</v>
+        <v>12.63656901780802</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.384485573757771</v>
+        <v>13.16251712044012</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>21.16635054367378</v>
+        <v>24.23668806168712</v>
       </c>
       <c r="H15">
-        <v>7.679526814303814</v>
+        <v>13.01012792715202</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.579669000278493</v>
+        <v>9.810661426851359</v>
       </c>
       <c r="M15">
-        <v>13.57831456908377</v>
+        <v>14.28387255016388</v>
       </c>
       <c r="N15">
-        <v>11.9080313555768</v>
+        <v>17.42373670667936</v>
       </c>
       <c r="O15">
-        <v>12.75508914192411</v>
+        <v>19.21957971650207</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.23013434276588</v>
+        <v>14.8666078228649</v>
       </c>
       <c r="C16">
-        <v>12.1290635956491</v>
+        <v>12.5837445890422</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.451715904701567</v>
+        <v>13.19265309102293</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>20.73123363786605</v>
+        <v>24.22822171667922</v>
       </c>
       <c r="H16">
-        <v>7.687697415704155</v>
+        <v>13.03551466426839</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.504369054596886</v>
+        <v>9.809205798684188</v>
       </c>
       <c r="M16">
-        <v>13.16905945209423</v>
+        <v>14.2083347229588</v>
       </c>
       <c r="N16">
-        <v>11.96016317228294</v>
+        <v>17.44596477205883</v>
       </c>
       <c r="O16">
-        <v>12.66754180591978</v>
+        <v>19.25287784298846</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.77123566074438</v>
+        <v>14.67493317785878</v>
       </c>
       <c r="C17">
-        <v>12.0223573175164</v>
+        <v>12.55127561852067</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.494030001775254</v>
+        <v>13.21161700549914</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>20.46943366467302</v>
+        <v>24.22557844696193</v>
       </c>
       <c r="H17">
-        <v>7.694721521150154</v>
+        <v>13.05169396321079</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.458579437395806</v>
+        <v>9.808657250535841</v>
       </c>
       <c r="M17">
-        <v>12.91194469241296</v>
+        <v>14.16223589391508</v>
       </c>
       <c r="N17">
-        <v>11.99331223849931</v>
+        <v>17.46007473244137</v>
       </c>
       <c r="O17">
-        <v>12.61816763991299</v>
+        <v>19.27457574250419</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.50305137679122</v>
+        <v>14.5636185879808</v>
       </c>
       <c r="C18">
-        <v>11.96061198861049</v>
+        <v>12.53258029747523</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.518754785110852</v>
+        <v>13.22269986203801</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>20.32077347580969</v>
+        <v>24.22499484915824</v>
       </c>
       <c r="H18">
-        <v>7.69948000605908</v>
+        <v>13.06122222478703</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.432396623739915</v>
+        <v>9.808468657311735</v>
       </c>
       <c r="M18">
-        <v>12.76183021143311</v>
+        <v>14.13581629029293</v>
       </c>
       <c r="N18">
-        <v>12.01279980085605</v>
+        <v>17.46836470336434</v>
       </c>
       <c r="O18">
-        <v>12.59133206503705</v>
+        <v>19.28752185721084</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.41151917152855</v>
+        <v>14.52574915371981</v>
       </c>
       <c r="C19">
-        <v>11.9396438847701</v>
+        <v>12.5262472359152</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.527192013902866</v>
+        <v>13.22648245756425</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>20.27077279095899</v>
+        <v>24.22495806275501</v>
       </c>
       <c r="H19">
-        <v>7.70121256871669</v>
+        <v>13.06448650996171</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.423558579646273</v>
+        <v>9.808426632286569</v>
       </c>
       <c r="M19">
-        <v>12.71062074375781</v>
+        <v>14.12688804438258</v>
       </c>
       <c r="N19">
-        <v>12.01946953206433</v>
+        <v>17.47120149843171</v>
       </c>
       <c r="O19">
-        <v>12.58251159576583</v>
+        <v>19.29198515021934</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.82052439762181</v>
+        <v>14.69544861549012</v>
       </c>
       <c r="C20">
-        <v>12.03375509603439</v>
+        <v>12.55473413827374</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.489485414598775</v>
+        <v>13.20958012485423</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>20.49710476816703</v>
+        <v>24.22576286153148</v>
       </c>
       <c r="H20">
-        <v>7.693898972676075</v>
+        <v>13.04994863363529</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.463437990534522</v>
+        <v>9.808702516464066</v>
       </c>
       <c r="M20">
-        <v>12.93954556149298</v>
+        <v>14.16713348595636</v>
       </c>
       <c r="N20">
-        <v>11.98973970320776</v>
+        <v>17.45855466847874</v>
       </c>
       <c r="O20">
-        <v>12.6232611475018</v>
+        <v>19.27221770888788</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.14422349869358</v>
+        <v>15.25262059523088</v>
       </c>
       <c r="C21">
-        <v>12.34542180559958</v>
+        <v>12.65018528862993</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.367464553335236</v>
+        <v>13.15488373990267</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>21.28024683574739</v>
+        <v>24.23966271719416</v>
       </c>
       <c r="H21">
-        <v>7.678056435329419</v>
+        <v>13.00376081313454</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.599230560828426</v>
+        <v>9.81114344132847</v>
       </c>
       <c r="M21">
-        <v>13.68211070565851</v>
+        <v>14.30344410927067</v>
       </c>
       <c r="N21">
-        <v>11.89493981409271</v>
+        <v>17.41814417270843</v>
       </c>
       <c r="O21">
-        <v>12.77905488482558</v>
+        <v>19.21137630653515</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.97200007703589</v>
+        <v>15.60657893263462</v>
       </c>
       <c r="C22">
-        <v>12.5455030626205</v>
+        <v>12.71232429021192</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.291306567078573</v>
+        <v>13.1206931671416</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>21.80843740956324</v>
+        <v>24.25709644223095</v>
       </c>
       <c r="H22">
-        <v>7.674546672371672</v>
+        <v>12.97555680375682</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.689235723970636</v>
+        <v>9.813861505356764</v>
       </c>
       <c r="M22">
-        <v>14.14769924133713</v>
+        <v>14.39323865217176</v>
       </c>
       <c r="N22">
-        <v>11.83690927063328</v>
+        <v>17.39328166654863</v>
       </c>
       <c r="O22">
-        <v>12.89539774823447</v>
+        <v>19.17578137928851</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.53359676927772</v>
+        <v>15.41862687546564</v>
       </c>
       <c r="C23">
-        <v>12.43906054464576</v>
+        <v>12.67918501208086</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.331617564139982</v>
+        <v>13.13879909725006</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>21.5250701331417</v>
+        <v>24.24702776376817</v>
       </c>
       <c r="H23">
-        <v>7.675771766619106</v>
+        <v>12.99042831142848</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.641088750752844</v>
+        <v>9.812308463489606</v>
       </c>
       <c r="M23">
-        <v>13.90100337657196</v>
+        <v>14.34525567190939</v>
       </c>
       <c r="N23">
-        <v>11.867513009328</v>
+        <v>17.40640979465766</v>
       </c>
       <c r="O23">
-        <v>12.83194700126229</v>
+        <v>19.19439679355301</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.79825453615482</v>
+        <v>14.68617706155363</v>
       </c>
       <c r="C24">
-        <v>12.02860339795984</v>
+        <v>12.55317062947214</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.491538784807767</v>
+        <v>13.2105004370898</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>20.48458888512619</v>
+        <v>24.2256765721192</v>
       </c>
       <c r="H24">
-        <v>7.694268608401451</v>
+        <v>13.05073699141731</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.461240994287613</v>
+        <v>9.808681656772187</v>
       </c>
       <c r="M24">
-        <v>12.92707436072941</v>
+        <v>14.16491902378326</v>
       </c>
       <c r="N24">
-        <v>11.9913535098319</v>
+        <v>17.4592413349959</v>
       </c>
       <c r="O24">
-        <v>12.62095355082336</v>
+        <v>19.27328230676798</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.76415794462754</v>
+        <v>13.85578519712776</v>
       </c>
       <c r="C25">
-        <v>11.57190752957382</v>
+        <v>12.41651643743894</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.678764560762458</v>
+        <v>13.29454752056018</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>19.43608866784068</v>
+        <v>24.23843571245483</v>
       </c>
       <c r="H25">
-        <v>7.741434683021034</v>
+        <v>13.12428949792556</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.273211911493331</v>
+        <v>9.809625349905863</v>
       </c>
       <c r="M25">
-        <v>11.79128628166903</v>
+        <v>13.97411807896242</v>
       </c>
       <c r="N25">
-        <v>12.14094859527821</v>
+        <v>17.52289490620479</v>
       </c>
       <c r="O25">
-        <v>12.4526852673959</v>
+        <v>19.37617916808807</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_243/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_243/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.21398521684939</v>
+        <v>18.12459406060946</v>
       </c>
       <c r="C2">
-        <v>12.31560227565291</v>
+        <v>11.22548285527829</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.36223393530197</v>
+        <v>7.828648460735701</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>24.27843624243556</v>
+        <v>18.73106568670274</v>
       </c>
       <c r="H2">
-        <v>13.18575121505748</v>
+        <v>7.797235617695487</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.814528489030314</v>
+        <v>6.140503076856682</v>
       </c>
       <c r="M2">
-        <v>13.83754049242213</v>
+        <v>11.03959012947834</v>
       </c>
       <c r="N2">
-        <v>17.57552532045061</v>
+        <v>12.26403938473406</v>
       </c>
       <c r="O2">
-        <v>19.46715587116932</v>
+        <v>12.37600300808078</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76271241188098</v>
+        <v>16.92383029509636</v>
       </c>
       <c r="C3">
-        <v>12.24719418083618</v>
+        <v>10.98542238072915</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.41174372781251</v>
+        <v>7.937462852579101</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>24.3244957366343</v>
+        <v>18.29643446616771</v>
       </c>
       <c r="H3">
-        <v>13.23195892781406</v>
+        <v>7.84706956784101</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.820490745795702</v>
+        <v>6.054447842408391</v>
       </c>
       <c r="M3">
-        <v>13.74776926705693</v>
+        <v>10.53444832556263</v>
       </c>
       <c r="N3">
-        <v>17.61480324029826</v>
+        <v>12.35516518464876</v>
       </c>
       <c r="O3">
-        <v>19.53824825278387</v>
+        <v>12.35133949492561</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.47861274572599</v>
+        <v>16.14200015625729</v>
       </c>
       <c r="C4">
-        <v>12.20523890311344</v>
+        <v>10.83580567171123</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.44394344324337</v>
+        <v>8.007767950070788</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>24.36206271122449</v>
+        <v>18.05113523598673</v>
       </c>
       <c r="H4">
-        <v>13.26257631663888</v>
+        <v>7.883235469454107</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.825457767990565</v>
+        <v>6.003622687295253</v>
       </c>
       <c r="M4">
-        <v>13.6941395386984</v>
+        <v>10.21454996549328</v>
       </c>
       <c r="N4">
-        <v>17.6407056856032</v>
+        <v>12.41480744512681</v>
       </c>
       <c r="O4">
-        <v>19.58653506266554</v>
+        <v>12.34889336266997</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.3612485512356</v>
+        <v>15.8121452679644</v>
       </c>
       <c r="C5">
-        <v>12.18816241285769</v>
+        <v>10.77434021310713</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.45751866368636</v>
+        <v>8.037285574600745</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>24.37969638943608</v>
+        <v>17.9566126473799</v>
       </c>
       <c r="H5">
-        <v>13.27561767765303</v>
+        <v>7.899321583030225</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.82781096485796</v>
+        <v>5.983431486103192</v>
       </c>
       <c r="M5">
-        <v>13.67267685792054</v>
+        <v>10.08191054056828</v>
       </c>
       <c r="N5">
-        <v>17.65171089283085</v>
+        <v>12.44002482489036</v>
       </c>
       <c r="O5">
-        <v>19.60737515503186</v>
+        <v>12.35097009658008</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.34166957351984</v>
+        <v>15.75669209281664</v>
       </c>
       <c r="C6">
-        <v>12.18532837167309</v>
+        <v>10.76410587862812</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.45980023788753</v>
+        <v>8.042239074436754</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>24.38276453313254</v>
+        <v>17.94124560781798</v>
       </c>
       <c r="H6">
-        <v>13.27781727698055</v>
+        <v>7.902072616787427</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.828221605492161</v>
+        <v>5.980110581418947</v>
       </c>
       <c r="M6">
-        <v>13.66913715406968</v>
+        <v>10.05975375189151</v>
       </c>
       <c r="N6">
-        <v>17.65356548471367</v>
+        <v>12.44426684707998</v>
       </c>
       <c r="O6">
-        <v>19.61090578215668</v>
+        <v>12.35149700621681</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.47703613392674</v>
+        <v>16.13759724314507</v>
       </c>
       <c r="C7">
-        <v>12.20500850870697</v>
+        <v>10.8349786484167</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.44412468579953</v>
+        <v>8.008162534800563</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>24.36229112670279</v>
+        <v>18.04983845072288</v>
       </c>
       <c r="H7">
-        <v>13.26274991146565</v>
+        <v>7.883447020730127</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.825488170726777</v>
+        <v>6.003348256350155</v>
       </c>
       <c r="M7">
-        <v>13.6938484765852</v>
+        <v>10.21277012416292</v>
       </c>
       <c r="N7">
-        <v>17.64085228367224</v>
+        <v>12.41514385960398</v>
       </c>
       <c r="O7">
-        <v>19.58681141508862</v>
+        <v>12.34890908610612</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.05994153752638</v>
+        <v>17.71978835612354</v>
       </c>
       <c r="C8">
-        <v>12.2920105115075</v>
+        <v>11.14320701721231</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.37893171336416</v>
+        <v>7.865436118756975</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>24.29238446508953</v>
+        <v>18.57674722149192</v>
       </c>
       <c r="H8">
-        <v>13.20121744874455</v>
+        <v>7.813231101657819</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.816313586184357</v>
+        <v>6.110422273648198</v>
       </c>
       <c r="M8">
-        <v>13.80628854702068</v>
+        <v>10.86753339480293</v>
       </c>
       <c r="N8">
-        <v>17.58869817737344</v>
+        <v>12.29468397174985</v>
       </c>
       <c r="O8">
-        <v>19.4907046584724</v>
+        <v>12.36479329406454</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.14053950332914</v>
+        <v>20.47123202785405</v>
       </c>
       <c r="C9">
-        <v>12.46261686365514</v>
+        <v>11.72745588553439</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.26533709516214</v>
+        <v>7.613789373090684</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>24.22936851480515</v>
+        <v>19.77909256730366</v>
       </c>
       <c r="H9">
-        <v>13.0983780670335</v>
+        <v>7.722119729153726</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.808655789723632</v>
+        <v>6.335699791023151</v>
       </c>
       <c r="M9">
-        <v>14.03782983053735</v>
+        <v>12.1853261194395</v>
       </c>
       <c r="N9">
-        <v>17.50055991728384</v>
+        <v>12.08849408199203</v>
       </c>
       <c r="O9">
-        <v>19.33914790159121</v>
+        <v>12.50176307075431</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.88833202440489</v>
+        <v>22.28192497290922</v>
       </c>
       <c r="C10">
-        <v>12.5874465870851</v>
+        <v>12.14118818883237</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.19051291665977</v>
+        <v>7.446940455644318</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>24.22865031274865</v>
+        <v>20.76136450492961</v>
       </c>
       <c r="H10">
-        <v>13.03369863172507</v>
+        <v>7.686994770701705</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.809285565251896</v>
+        <v>6.509614455992982</v>
       </c>
       <c r="M10">
-        <v>14.21360734638015</v>
+        <v>13.1980963994102</v>
       </c>
       <c r="N10">
-        <v>17.44437833119457</v>
+        <v>11.95643827228501</v>
       </c>
       <c r="O10">
-        <v>19.25046517787338</v>
+        <v>12.67338970821973</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.21710041074613</v>
+        <v>23.06063218972075</v>
       </c>
       <c r="C11">
-        <v>12.64401337596171</v>
+        <v>12.3254320586926</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.15833718982454</v>
+        <v>7.375164503961056</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>24.23827541051871</v>
+        <v>21.22853526854219</v>
       </c>
       <c r="H11">
-        <v>13.00663821267876</v>
+        <v>7.678691155169213</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.810919712082523</v>
+        <v>6.590356354992655</v>
       </c>
       <c r="M11">
-        <v>14.29456792428026</v>
+        <v>13.63514513285143</v>
       </c>
       <c r="N11">
-        <v>17.42067242497625</v>
+        <v>11.90085672362188</v>
       </c>
       <c r="O11">
-        <v>19.21507606672535</v>
+        <v>12.76812222527148</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.3398569397975</v>
+        <v>23.34910115788283</v>
       </c>
       <c r="C12">
-        <v>12.66539291744417</v>
+        <v>12.39458489520415</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.14642005910953</v>
+        <v>7.348598417447401</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>24.24335277880733</v>
+        <v>21.40825803583392</v>
       </c>
       <c r="H12">
-        <v>12.9967310986754</v>
+        <v>7.676715631044284</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.811731250167089</v>
+        <v>6.621148470287494</v>
       </c>
       <c r="M12">
-        <v>14.32534899344218</v>
+        <v>13.79726075229226</v>
       </c>
       <c r="N12">
-        <v>17.41196115280299</v>
+        <v>11.88048058564139</v>
       </c>
       <c r="O12">
-        <v>19.20238993191358</v>
+        <v>12.80648077756959</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.31349802745574</v>
+        <v>23.28725836734992</v>
       </c>
       <c r="C13">
-        <v>12.66079043004004</v>
+        <v>12.37971969774665</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.14897475659869</v>
+        <v>7.354292239294891</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>24.24219555987991</v>
+        <v>21.36942801294983</v>
       </c>
       <c r="H13">
-        <v>12.99884964236169</v>
+        <v>7.677088056874055</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.811547917448499</v>
+        <v>6.614507455859419</v>
       </c>
       <c r="M13">
-        <v>14.31871459464658</v>
+        <v>13.76249648482979</v>
       </c>
       <c r="N13">
-        <v>17.41382547593837</v>
+        <v>11.88483866327359</v>
       </c>
       <c r="O13">
-        <v>19.20509027878429</v>
+        <v>12.79810769515285</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.22723508858589</v>
+        <v>23.08449284194437</v>
       </c>
       <c r="C14">
-        <v>12.64577316179452</v>
+        <v>12.33113390623287</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.15735141057348</v>
+        <v>7.372966464841666</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>24.23866441633817</v>
+        <v>21.24326535924349</v>
       </c>
       <c r="H14">
-        <v>13.00581633078745</v>
+        <v>7.678504823291191</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.810982621785609</v>
+        <v>6.592885389419702</v>
       </c>
       <c r="M14">
-        <v>14.29709795316363</v>
+        <v>13.64855021096586</v>
       </c>
       <c r="N14">
-        <v>17.41995042286887</v>
+        <v>11.89916675744047</v>
       </c>
       <c r="O14">
-        <v>19.21401802707773</v>
+        <v>12.77122770990825</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.17416704744559</v>
+        <v>22.95946002117548</v>
       </c>
       <c r="C15">
-        <v>12.63656901780802</v>
+        <v>12.30129214175679</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.16251712044012</v>
+        <v>7.384485573757886</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>24.23668806168712</v>
+        <v>21.16635054367377</v>
       </c>
       <c r="H15">
-        <v>13.01012792715202</v>
+        <v>7.679526814303908</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.810661426851359</v>
+        <v>6.579669000278536</v>
       </c>
       <c r="M15">
-        <v>14.28387255016388</v>
+        <v>13.57831456908373</v>
       </c>
       <c r="N15">
-        <v>17.42373670667936</v>
+        <v>11.90803135557684</v>
       </c>
       <c r="O15">
-        <v>19.21957971650207</v>
+        <v>12.75508914192417</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.8666078228649</v>
+        <v>22.23013434276589</v>
       </c>
       <c r="C16">
-        <v>12.5837445890422</v>
+        <v>12.1290635956493</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.19265309102293</v>
+        <v>7.451715904701634</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>24.22822171667922</v>
+        <v>20.73123363786607</v>
       </c>
       <c r="H16">
-        <v>13.03551466426839</v>
+        <v>7.687697415704065</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.809205798684188</v>
+        <v>6.504369054596884</v>
       </c>
       <c r="M16">
-        <v>14.2083347229588</v>
+        <v>13.16905945209424</v>
       </c>
       <c r="N16">
-        <v>17.44596477205883</v>
+        <v>11.96016317228297</v>
       </c>
       <c r="O16">
-        <v>19.25287784298846</v>
+        <v>12.66754180591978</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.67493317785878</v>
+        <v>21.77123566074439</v>
       </c>
       <c r="C17">
-        <v>12.55127561852067</v>
+        <v>12.02235731751643</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.21161700549914</v>
+        <v>7.494030001775251</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>24.22557844696193</v>
+        <v>20.46943366467294</v>
       </c>
       <c r="H17">
-        <v>13.05169396321079</v>
+        <v>7.694721521150114</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.808657250535841</v>
+        <v>6.458579437395791</v>
       </c>
       <c r="M17">
-        <v>14.16223589391508</v>
+        <v>12.91194469241296</v>
       </c>
       <c r="N17">
-        <v>17.46007473244137</v>
+        <v>11.99331223849925</v>
       </c>
       <c r="O17">
-        <v>19.27457574250419</v>
+        <v>12.61816763991294</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.5636185879808</v>
+        <v>21.50305137679124</v>
       </c>
       <c r="C18">
-        <v>12.53258029747523</v>
+        <v>11.96061198861038</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.22269986203801</v>
+        <v>7.518754785110728</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>24.22499484915824</v>
+        <v>20.32077347580983</v>
       </c>
       <c r="H18">
-        <v>13.06122222478703</v>
+        <v>7.69948000605907</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.808468657311735</v>
+        <v>6.432396623739876</v>
       </c>
       <c r="M18">
-        <v>14.13581629029293</v>
+        <v>12.76183021143315</v>
       </c>
       <c r="N18">
-        <v>17.46836470336434</v>
+        <v>12.01279980085608</v>
       </c>
       <c r="O18">
-        <v>19.28752185721084</v>
+        <v>12.5913320650371</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.52574915371981</v>
+        <v>21.41151917152855</v>
       </c>
       <c r="C19">
-        <v>12.5262472359152</v>
+        <v>11.93964388476992</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.22648245756425</v>
+        <v>7.527192013902866</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>24.22495806275501</v>
+        <v>20.27077279095892</v>
       </c>
       <c r="H19">
-        <v>13.06448650996171</v>
+        <v>7.701212568716585</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.808426632286569</v>
+        <v>6.423558579646321</v>
       </c>
       <c r="M19">
-        <v>14.12688804438258</v>
+        <v>12.7106207437578</v>
       </c>
       <c r="N19">
-        <v>17.47120149843171</v>
+        <v>12.01946953206427</v>
       </c>
       <c r="O19">
-        <v>19.29198515021934</v>
+        <v>12.58251159576578</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.69544861549012</v>
+        <v>21.82052439762177</v>
       </c>
       <c r="C20">
-        <v>12.55473413827374</v>
+        <v>12.0337550960344</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.20958012485423</v>
+        <v>7.489485414598771</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>24.22576286153148</v>
+        <v>20.49710476816709</v>
       </c>
       <c r="H20">
-        <v>13.04994863363529</v>
+        <v>7.69389897267618</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.808702516464066</v>
+        <v>6.463437990534517</v>
       </c>
       <c r="M20">
-        <v>14.16713348595636</v>
+        <v>12.93954556149294</v>
       </c>
       <c r="N20">
-        <v>17.45855466847874</v>
+        <v>11.98973970320779</v>
       </c>
       <c r="O20">
-        <v>19.27221770888788</v>
+        <v>12.62326114750192</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.25262059523088</v>
+        <v>23.14422349869365</v>
       </c>
       <c r="C21">
-        <v>12.65018528862993</v>
+        <v>12.34542180559947</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.15488373990267</v>
+        <v>7.367464553335243</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>24.23966271719416</v>
+        <v>21.28024683574741</v>
       </c>
       <c r="H21">
-        <v>13.00376081313454</v>
+        <v>7.678056435329378</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.81114344132847</v>
+        <v>6.59923056082843</v>
       </c>
       <c r="M21">
-        <v>14.30344410927067</v>
+        <v>13.68211070565853</v>
       </c>
       <c r="N21">
-        <v>17.41814417270843</v>
+        <v>11.89493981409263</v>
       </c>
       <c r="O21">
-        <v>19.21137630653515</v>
+        <v>12.77905488482549</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.60657893263462</v>
+        <v>23.97200007703587</v>
       </c>
       <c r="C22">
-        <v>12.71232429021192</v>
+        <v>12.54550306262063</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.1206931671416</v>
+        <v>7.291306567078627</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>24.25709644223095</v>
+        <v>21.80843740956324</v>
       </c>
       <c r="H22">
-        <v>12.97555680375682</v>
+        <v>7.674546672371685</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.813861505356764</v>
+        <v>6.689235723970683</v>
       </c>
       <c r="M22">
-        <v>14.39323865217176</v>
+        <v>14.14769924133711</v>
       </c>
       <c r="N22">
-        <v>17.39328166654863</v>
+        <v>11.83690927063328</v>
       </c>
       <c r="O22">
-        <v>19.17578137928851</v>
+        <v>12.8953977482345</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.41862687546564</v>
+        <v>23.5335967692778</v>
       </c>
       <c r="C23">
-        <v>12.67918501208086</v>
+        <v>12.43906054464556</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.13879909725006</v>
+        <v>7.331617564139796</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>24.24702776376817</v>
+        <v>21.52507013314164</v>
       </c>
       <c r="H23">
-        <v>12.99042831142848</v>
+        <v>7.675771766619118</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.812308463489606</v>
+        <v>6.641088750752824</v>
       </c>
       <c r="M23">
-        <v>14.34525567190939</v>
+        <v>13.901003376572</v>
       </c>
       <c r="N23">
-        <v>17.40640979465766</v>
+        <v>11.86751300932793</v>
       </c>
       <c r="O23">
-        <v>19.19439679355301</v>
+        <v>12.83194700126224</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.68617706155363</v>
+        <v>21.79825453615475</v>
       </c>
       <c r="C24">
-        <v>12.55317062947214</v>
+        <v>12.02860339795971</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.2105004370898</v>
+        <v>7.491538784807767</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>24.2256765721192</v>
+        <v>20.4845888851263</v>
       </c>
       <c r="H24">
-        <v>13.05073699141731</v>
+        <v>7.694268608401596</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.808681656772187</v>
+        <v>6.461240994287587</v>
       </c>
       <c r="M24">
-        <v>14.16491902378326</v>
+        <v>12.92707436072937</v>
       </c>
       <c r="N24">
-        <v>17.4592413349959</v>
+        <v>11.99135350983193</v>
       </c>
       <c r="O24">
-        <v>19.27328230676798</v>
+        <v>12.62095355082345</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.85578519712776</v>
+        <v>19.76415794462755</v>
       </c>
       <c r="C25">
-        <v>12.41651643743894</v>
+        <v>11.57190752957369</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.29454752056018</v>
+        <v>7.678764560762465</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>24.23843571245483</v>
+        <v>19.4360886678408</v>
       </c>
       <c r="H25">
-        <v>13.12428949792556</v>
+        <v>7.741434683021044</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.809625349905863</v>
+        <v>6.273211911493395</v>
       </c>
       <c r="M25">
-        <v>13.97411807896242</v>
+        <v>11.79128628166903</v>
       </c>
       <c r="N25">
-        <v>17.52289490620479</v>
+        <v>12.14094859527823</v>
       </c>
       <c r="O25">
-        <v>19.37617916808807</v>
+        <v>12.452685267396</v>
       </c>
     </row>
   </sheetData>
